--- a/Results/sfcc/sfcc_CNN2DModel_PCC.xlsx
+++ b/Results/sfcc/sfcc_CNN2DModel_PCC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\StudyCode\functionalconnectivity_sfcc\Results\sfcc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28136A80-A866-4253-95C2-33B5EE770BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE5E697-DCD2-4783-8E21-A6B1E6E274DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -555,9 +555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
